--- a/data/database/processed/season_allocation_database.xlsx
+++ b/data/database/processed/season_allocation_database.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/database/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF75B8CD-F90D-F343-8FAC-31438B0F672B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34CF843-4267-EB44-A39E-F750CB1838BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{862D14FF-10A0-A64A-A135-8B21D1D5E445}"/>
+    <workbookView xWindow="19600" yWindow="1040" windowWidth="27640" windowHeight="16940" xr2:uid="{862D14FF-10A0-A64A-A135-8B21D1D5E445}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="81">
   <si>
     <t>season</t>
   </si>
@@ -174,13 +174,118 @@
   </si>
   <si>
     <t>Silver hake</t>
+  </si>
+  <si>
+    <t>Mid-Atlantic</t>
+  </si>
+  <si>
+    <t>Summer flounder, black sea bass, scup</t>
+  </si>
+  <si>
+    <t>Scup</t>
+  </si>
+  <si>
+    <t>Winter I</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Winter II</t>
+  </si>
+  <si>
+    <t>Jan 1-Apr 30</t>
+  </si>
+  <si>
+    <t>May 1-Sep 30</t>
+  </si>
+  <si>
+    <t>Oct 1-Dec 31</t>
+  </si>
+  <si>
+    <t>Longfin inshore squid</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Mackerel, squid, butterfish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 1-Aug </t>
+  </si>
+  <si>
+    <t>South Atlantic</t>
+  </si>
+  <si>
+    <t>Coastal migratory pelagics</t>
+  </si>
+  <si>
+    <t>South Atlantic King mackerel</t>
+  </si>
+  <si>
+    <t>Mar 1-Sep 30</t>
+  </si>
+  <si>
+    <t>Oct 1-Feb 28</t>
+  </si>
+  <si>
+    <t>Pacific</t>
+  </si>
+  <si>
+    <t>Coastal pelagic species</t>
+  </si>
+  <si>
+    <t>Pacific sardine</t>
+  </si>
+  <si>
+    <t>Season 3</t>
+  </si>
+  <si>
+    <t>Wing fishery (winter skate)</t>
+  </si>
+  <si>
+    <t>Bait fishery (little skate)</t>
+  </si>
+  <si>
+    <t>Northeast skate complex</t>
+  </si>
+  <si>
+    <t>May 1-Jul 31</t>
+  </si>
+  <si>
+    <t>Aug 1-Oct 31</t>
+  </si>
+  <si>
+    <t>Nov 1-Apr 30</t>
+  </si>
+  <si>
+    <t>Sep 1-Apr 30</t>
+  </si>
+  <si>
+    <t>May 1-Aug 31</t>
+  </si>
+  <si>
+    <t>Jan-Jun</t>
+  </si>
+  <si>
+    <t>Jul-Sep 13</t>
+  </si>
+  <si>
+    <t>Sep 13-Dec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -233,6 +338,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -255,18 +367,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,17 +713,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CC2486-4A8F-9548-AA5E-4720A9DC086E}">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
@@ -624,25 +735,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -650,235 +761,235 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="3">
         <v>45047</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="3">
         <v>45138</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="6">
         <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="3">
         <v>45139</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>45230</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <v>0.253</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>45231</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <v>45322</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <v>0.17699999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>45323</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <v>45412</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <v>0.23699999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="3">
         <v>45047</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <v>45138</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>0.27</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="3">
         <v>45139</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <v>45230</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <v>0.214</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <v>45231</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="3">
         <v>45322</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <v>0.22800000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="3">
         <v>45323</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <v>45412</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <v>0.28799999999999998</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="3">
         <v>45444</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <v>45565</v>
       </c>
       <c r="H10" s="4">
@@ -888,25 +999,25 @@
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="3">
         <v>45566</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="3">
         <v>45657</v>
       </c>
       <c r="H11" s="4">
@@ -916,25 +1027,25 @@
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="3">
         <v>45292</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="3">
         <v>45412</v>
       </c>
       <c r="H12" s="4">
@@ -942,25 +1053,25 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="3">
         <v>45292</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="3">
         <v>45412</v>
       </c>
       <c r="H13" s="4">
@@ -968,25 +1079,25 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="3">
         <v>45292</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="3">
         <v>45412</v>
       </c>
       <c r="H14" s="4">
@@ -994,25 +1105,25 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="3">
         <v>45292</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="3">
         <v>45412</v>
       </c>
       <c r="H15" s="4">
@@ -1020,25 +1131,25 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="3">
         <v>45292</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="3">
         <v>45412</v>
       </c>
       <c r="H16" s="4">
@@ -1046,25 +1157,25 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="3">
         <v>45292</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="3">
         <v>45412</v>
       </c>
       <c r="H17" s="4">
@@ -1072,25 +1183,25 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="3">
         <v>45292</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="3">
         <v>45412</v>
       </c>
       <c r="H18" s="4">
@@ -1098,25 +1209,25 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="3">
         <v>45292</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="3">
         <v>45412</v>
       </c>
       <c r="H19" s="4">
@@ -1124,25 +1235,25 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="3">
         <v>45292</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="3">
         <v>45412</v>
       </c>
       <c r="H20" s="4">
@@ -1150,25 +1261,25 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="3">
         <v>45292</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="3">
         <v>45412</v>
       </c>
       <c r="H21" s="4">
@@ -1176,25 +1287,25 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="3">
         <v>45292</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="3">
         <v>45412</v>
       </c>
       <c r="H22" s="4">
@@ -1202,25 +1313,25 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="3">
         <v>45292</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="3">
         <v>45412</v>
       </c>
       <c r="H23" s="4">
@@ -1228,25 +1339,25 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="3">
         <v>45292</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="3">
         <v>45412</v>
       </c>
       <c r="H24" s="4">
@@ -1254,25 +1365,25 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="9" t="s">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="3">
         <v>45292</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="3">
         <v>45412</v>
       </c>
       <c r="H25" s="4">
@@ -1280,25 +1391,25 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="3">
         <v>45413</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="3">
         <v>45535</v>
       </c>
       <c r="H26" s="4">
@@ -1306,103 +1417,103 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="3">
         <v>45413</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="3">
         <v>45535</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="8">
         <v>0.33</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="3">
         <v>45413</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="3">
         <v>45535</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="6">
         <v>0.33</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="3">
         <v>45413</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="3">
         <v>45535</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="6">
         <v>0.26</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="3">
         <v>45413</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="3">
         <v>45535</v>
       </c>
       <c r="H30" s="4">
@@ -1410,25 +1521,25 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="3">
         <v>45413</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="3">
         <v>45535</v>
       </c>
       <c r="H31" s="4">
@@ -1436,25 +1547,25 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="3">
         <v>45413</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="3">
         <v>45535</v>
       </c>
       <c r="H32" s="4">
@@ -1462,25 +1573,25 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="3">
         <v>45413</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="3">
         <v>45535</v>
       </c>
       <c r="H33" s="4">
@@ -1488,25 +1599,25 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="9" t="s">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="3">
         <v>45413</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="3">
         <v>45535</v>
       </c>
       <c r="H34" s="4">
@@ -1514,25 +1625,25 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="3">
         <v>45413</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="3">
         <v>45535</v>
       </c>
       <c r="H35" s="4">
@@ -1540,25 +1651,25 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="3">
         <v>45413</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="3">
         <v>45535</v>
       </c>
       <c r="H36" s="4">
@@ -1566,25 +1677,25 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="9" t="s">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="3">
         <v>45413</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="3">
         <v>45535</v>
       </c>
       <c r="H37" s="4">
@@ -1592,25 +1703,25 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="9" t="s">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="3">
         <v>45413</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="3">
         <v>45535</v>
       </c>
       <c r="H38" s="4">
@@ -1618,25 +1729,25 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="9" t="s">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" t="s">
         <v>31</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="3">
         <v>45413</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="3">
         <v>45535</v>
       </c>
       <c r="H39" s="4">
@@ -1644,25 +1755,25 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="9" t="s">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="3">
         <v>45536</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="3">
         <v>45657</v>
       </c>
       <c r="H40" s="4">
@@ -1670,25 +1781,25 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="9" t="s">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="3">
         <v>45536</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="3">
         <v>45657</v>
       </c>
       <c r="H41" s="4">
@@ -1696,25 +1807,25 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="9" t="s">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="3">
         <v>45536</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="3">
         <v>45657</v>
       </c>
       <c r="H42" s="4">
@@ -1722,25 +1833,25 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="9" t="s">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="3">
         <v>45536</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="3">
         <v>45657</v>
       </c>
       <c r="H43" s="4">
@@ -1748,25 +1859,25 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="9" t="s">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="3">
         <v>45536</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="3">
         <v>45657</v>
       </c>
       <c r="H44" s="4">
@@ -1774,25 +1885,25 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="9" t="s">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="3">
         <v>45536</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="3">
         <v>45657</v>
       </c>
       <c r="H45" s="4">
@@ -1800,25 +1911,25 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="9" t="s">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" t="s">
         <v>32</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="3">
         <v>45536</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="3">
         <v>45657</v>
       </c>
       <c r="H46" s="4">
@@ -1826,25 +1937,25 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="9" t="s">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="3">
         <v>45536</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="3">
         <v>45657</v>
       </c>
       <c r="H47" s="4">
@@ -1852,25 +1963,25 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="9" t="s">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" t="s">
         <v>32</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="3">
         <v>45536</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="3">
         <v>45657</v>
       </c>
       <c r="H48" s="4">
@@ -1878,25 +1989,25 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="9" t="s">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" t="s">
         <v>32</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="3">
         <v>45536</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="3">
         <v>45657</v>
       </c>
       <c r="H49" s="4">
@@ -1904,25 +2015,25 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="9" t="s">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" t="s">
         <v>32</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="3">
         <v>45536</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="3">
         <v>45657</v>
       </c>
       <c r="H50" s="4">
@@ -1930,25 +2041,25 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="9" t="s">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" t="s">
         <v>32</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="3">
         <v>45536</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="3">
         <v>45657</v>
       </c>
       <c r="H51" s="4">
@@ -1956,25 +2067,25 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="9" t="s">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" t="s">
         <v>32</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="3">
         <v>45536</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="3">
         <v>45657</v>
       </c>
       <c r="H52" s="4">
@@ -1982,29 +2093,446 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="9" t="s">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="3">
         <v>45536</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="3">
         <v>45657</v>
       </c>
       <c r="H53" s="4">
         <v>0.37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="3">
+        <v>45292</v>
+      </c>
+      <c r="G54" s="3">
+        <v>45412</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0.4511</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" s="3">
+        <v>45413</v>
+      </c>
+      <c r="G55" s="3">
+        <v>45565</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0.38950000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="3">
+        <v>45566</v>
+      </c>
+      <c r="G56" s="3">
+        <v>45657</v>
+      </c>
+      <c r="H56" s="4">
+        <v>0.15939999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" s="3">
+        <v>45292</v>
+      </c>
+      <c r="G57" s="3">
+        <v>45412</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" s="3">
+        <v>45413</v>
+      </c>
+      <c r="G58" s="3">
+        <v>45535</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" s="3">
+        <v>45536</v>
+      </c>
+      <c r="G59" s="3">
+        <v>45657</v>
+      </c>
+      <c r="H59" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" s="3">
+        <v>44986</v>
+      </c>
+      <c r="G60" s="3">
+        <v>45199</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="3">
+        <v>45200</v>
+      </c>
+      <c r="G61" s="3">
+        <v>45350</v>
+      </c>
+      <c r="H61" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" s="3">
+        <v>45292</v>
+      </c>
+      <c r="G62" s="3">
+        <v>45473</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>79</v>
+      </c>
+      <c r="F63" s="3">
+        <v>45474</v>
+      </c>
+      <c r="G63" s="3">
+        <v>45548</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" t="s">
+        <v>80</v>
+      </c>
+      <c r="F64" s="3">
+        <v>45549</v>
+      </c>
+      <c r="G64" s="3">
+        <v>45657</v>
+      </c>
+      <c r="H64" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" t="s">
+        <v>77</v>
+      </c>
+      <c r="F65" s="3">
+        <v>45047</v>
+      </c>
+      <c r="G65" s="3">
+        <v>45169</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>76</v>
+      </c>
+      <c r="F66" s="3">
+        <v>45170</v>
+      </c>
+      <c r="G66" s="9">
+        <v>45413</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s">
+        <v>73</v>
+      </c>
+      <c r="F67" s="3">
+        <v>45047</v>
+      </c>
+      <c r="G67" s="3">
+        <v>45138</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" s="3">
+        <v>45139</v>
+      </c>
+      <c r="G68" s="3">
+        <v>45230</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" t="s">
+        <v>75</v>
+      </c>
+      <c r="F69" s="3">
+        <v>45231</v>
+      </c>
+      <c r="G69" s="3">
+        <v>45412</v>
+      </c>
+      <c r="H69" s="4">
+        <f>1-SUM(H67:H68)</f>
+        <v>0.32099999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/data/database/processed/season_allocation_database.xlsx
+++ b/data/database/processed/season_allocation_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/database/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34CF843-4267-EB44-A39E-F750CB1838BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CAE406-9B46-1942-8FAF-6F12973717CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="1040" windowWidth="27640" windowHeight="16940" xr2:uid="{862D14FF-10A0-A64A-A135-8B21D1D5E445}"/>
+    <workbookView xWindow="8780" yWindow="500" windowWidth="23660" windowHeight="19760" xr2:uid="{862D14FF-10A0-A64A-A135-8B21D1D5E445}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CC2486-4A8F-9548-AA5E-4720A9DC086E}">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/database/processed/season_allocation_database.xlsx
+++ b/data/database/processed/season_allocation_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/database/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CAE406-9B46-1942-8FAF-6F12973717CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C41DE5-AAF4-4B4C-8E03-A24B86032EC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8780" yWindow="500" windowWidth="23660" windowHeight="19760" xr2:uid="{862D14FF-10A0-A64A-A135-8B21D1D5E445}"/>
+    <workbookView xWindow="20660" yWindow="500" windowWidth="23660" windowHeight="19760" xr2:uid="{862D14FF-10A0-A64A-A135-8B21D1D5E445}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -285,7 +285,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -715,11 +715,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CC2486-4A8F-9548-AA5E-4720A9DC086E}">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
@@ -734,7 +734,7 @@
     <col min="12" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -760,7 +760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -786,7 +786,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -812,7 +812,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -838,7 +838,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -864,7 +864,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -890,7 +890,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -916,7 +916,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -942,7 +942,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -970,7 +970,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1026,7 +1026,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>0.4511</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>0.38950000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>46</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>0.15939999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>46</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>46</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>46</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>0.371</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>20</v>
       </c>

--- a/data/database/processed/season_allocation_database.xlsx
+++ b/data/database/processed/season_allocation_database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/database/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C41DE5-AAF4-4B4C-8E03-A24B86032EC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332AE8FF-49F0-2F4F-9877-9F3FA9BC6698}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20660" yWindow="500" windowWidth="23660" windowHeight="19760" xr2:uid="{862D14FF-10A0-A64A-A135-8B21D1D5E445}"/>
   </bookViews>
@@ -716,7 +716,7 @@
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/data/database/processed/season_allocation_database.xlsx
+++ b/data/database/processed/season_allocation_database.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/database/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332AE8FF-49F0-2F4F-9877-9F3FA9BC6698}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1763FC41-A943-1C40-AE0E-333385457D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20660" yWindow="500" windowWidth="23660" windowHeight="19760" xr2:uid="{862D14FF-10A0-A64A-A135-8B21D1D5E445}"/>
+    <workbookView xWindow="9740" yWindow="500" windowWidth="23660" windowHeight="19760" activeTab="1" xr2:uid="{862D14FF-10A0-A64A-A135-8B21D1D5E445}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,10 +26,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="104">
   <si>
     <t>season</t>
   </si>
@@ -279,13 +280,82 @@
   </si>
   <si>
     <t>Sep 13-Dec</t>
+  </si>
+  <si>
+    <t>1994-1998</t>
+  </si>
+  <si>
+    <t>1983-1992</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>PFMC</t>
+  </si>
+  <si>
+    <t>SAFMC</t>
+  </si>
+  <si>
+    <t>MAFMC</t>
+  </si>
+  <si>
+    <t>NEFMC</t>
+  </si>
+  <si>
+    <t>Southern red hake</t>
+  </si>
+  <si>
+    <t>Southern silver hake</t>
+  </si>
+  <si>
+    <t>1998-2006</t>
+  </si>
+  <si>
+    <t>Skates</t>
+  </si>
+  <si>
+    <t>Small-mesh</t>
+  </si>
+  <si>
+    <t>Bait fishery (winter skate)</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>year_range</t>
+  </si>
+  <si>
+    <t>year1</t>
+  </si>
+  <si>
+    <t>year2</t>
+  </si>
+  <si>
+    <t>2008-2010</t>
+  </si>
+  <si>
+    <t>SF/S/BSB</t>
+  </si>
+  <si>
+    <t>MSB</t>
+  </si>
+  <si>
+    <t>CPS</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>Expert judgement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -345,6 +415,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -367,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -378,6 +460,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,11 +799,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CC2486-4A8F-9548-AA5E-4720A9DC086E}">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
@@ -734,7 +818,7 @@
     <col min="12" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -760,7 +844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -786,7 +870,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -812,7 +896,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -838,7 +922,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -864,7 +948,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -890,7 +974,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -916,7 +1000,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -942,7 +1026,7 @@
         <v>0.22800000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -970,7 +1054,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -998,7 +1082,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1026,7 +1110,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1052,7 +1136,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1078,7 +1162,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1104,7 +1188,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1130,7 +1214,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1156,7 +1240,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1182,7 +1266,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1208,7 +1292,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1234,7 +1318,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1260,7 +1344,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1286,7 +1370,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1312,7 +1396,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1338,7 +1422,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1364,7 +1448,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1390,7 +1474,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1416,7 +1500,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1442,7 +1526,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1468,7 +1552,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1494,7 +1578,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1520,7 +1604,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1546,7 +1630,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1572,7 +1656,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1598,7 +1682,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -1624,7 +1708,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -1650,7 +1734,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -1676,7 +1760,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -1702,7 +1786,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -1728,7 +1812,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -1754,7 +1838,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -1780,7 +1864,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -1806,7 +1890,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1832,7 +1916,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -1858,7 +1942,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -1884,7 +1968,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -1910,7 +1994,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -1936,7 +2020,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -1962,7 +2046,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -1988,7 +2072,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -2014,7 +2098,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -2040,7 +2124,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -2066,7 +2150,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -2092,7 +2176,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -2118,7 +2202,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -2144,7 +2228,7 @@
         <v>0.4511</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -2170,7 +2254,7 @@
         <v>0.38950000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>46</v>
       </c>
@@ -2196,7 +2280,7 @@
         <v>0.15939999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>46</v>
       </c>
@@ -2222,7 +2306,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>46</v>
       </c>
@@ -2248,7 +2332,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>46</v>
       </c>
@@ -2274,7 +2358,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -2300,7 +2384,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2326,7 +2410,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -2352,7 +2436,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -2378,7 +2462,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -2404,7 +2488,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -2430,7 +2514,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -2456,7 +2540,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -2482,7 +2566,7 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -2508,7 +2592,7 @@
         <v>0.371</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -2539,4 +2623,196 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468DB07B-8062-5B4F-A0BF-98F10F4042EB}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1994</v>
+      </c>
+      <c r="G4">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1983</v>
+      </c>
+      <c r="G5">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2008</v>
+      </c>
+      <c r="G6">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2008</v>
+      </c>
+      <c r="G7">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1998</v>
+      </c>
+      <c r="G8">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1998</v>
+      </c>
+      <c r="G9">
+        <v>2006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/database/processed/season_allocation_database.xlsx
+++ b/data/database/processed/season_allocation_database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/database/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B05F53-3D66-1E4C-8DD5-E79A4E4B43A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAD3DED-D954-294F-B5AA-F3B96F778250}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="500" windowWidth="25800" windowHeight="23840" activeTab="1" xr2:uid="{862D14FF-10A0-A64A-A135-8B21D1D5E445}"/>
+    <workbookView xWindow="1360" yWindow="500" windowWidth="25800" windowHeight="23840" activeTab="1" xr2:uid="{862D14FF-10A0-A64A-A135-8B21D1D5E445}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,10 +346,10 @@
     <t>2000-2007</t>
   </si>
   <si>
-    <t>Based on seasonal fishing effort</t>
-  </si>
-  <si>
     <t>Undetermined</t>
+  </si>
+  <si>
+    <t>2013-2017</t>
   </si>
 </sst>
 </file>
@@ -357,7 +357,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -400,21 +400,21 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -445,17 +445,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22CC2486-4A8F-9548-AA5E-4720A9DC086E}">
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -804,9 +805,9 @@
     <col min="3" max="3" width="25" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
     <col min="12" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
@@ -828,13 +829,13 @@
       <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -854,13 +855,13 @@
       <c r="E2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>45292</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>45412</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="7">
         <v>0.43</v>
       </c>
     </row>
@@ -880,13 +881,13 @@
       <c r="E3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>45413</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>45535</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>0.17</v>
       </c>
     </row>
@@ -906,13 +907,13 @@
       <c r="E4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>45536</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>45657</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <v>0.4</v>
       </c>
     </row>
@@ -932,13 +933,13 @@
       <c r="E5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>45292</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>45412</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>0.4511</v>
       </c>
     </row>
@@ -958,13 +959,13 @@
       <c r="E6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>45413</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>45565</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <v>0.38950000000000001</v>
       </c>
     </row>
@@ -984,13 +985,13 @@
       <c r="E7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>45566</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>45657</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <v>0.15939999999999999</v>
       </c>
     </row>
@@ -1001,7 +1002,7 @@
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1010,13 +1011,13 @@
       <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>45444</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="4">
         <v>45565</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <v>0.72799999999999998</v>
       </c>
     </row>
@@ -1027,7 +1028,7 @@
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1036,13 +1037,13 @@
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4">
         <v>45566</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="4">
         <v>45657</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="7">
         <v>0.27200000000000002</v>
       </c>
       <c r="M9" s="1"/>
@@ -1064,13 +1065,13 @@
       <c r="E10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>45292</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>45412</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="7">
         <v>0.74</v>
       </c>
       <c r="M10" s="2"/>
@@ -1092,13 +1093,13 @@
       <c r="E11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>45413</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
         <v>45535</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="7">
         <v>0.08</v>
       </c>
       <c r="M11" s="2"/>
@@ -1120,13 +1121,13 @@
       <c r="E12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>45536</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="4">
         <v>45657</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="7">
         <v>0.18</v>
       </c>
     </row>
@@ -1146,13 +1147,13 @@
       <c r="E13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4">
         <v>45292</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="4">
         <v>45412</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="7">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -1172,13 +1173,13 @@
       <c r="E14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>45413</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="4">
         <v>45535</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="7">
         <v>0.26</v>
       </c>
     </row>
@@ -1198,13 +1199,13 @@
       <c r="E15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4">
         <v>45536</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="4">
         <v>45657</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="7">
         <v>0.17</v>
       </c>
     </row>
@@ -1224,13 +1225,13 @@
       <c r="E16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="4">
         <v>45292</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="4">
         <v>45412</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="7">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -1250,13 +1251,13 @@
       <c r="E17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="4">
         <v>45413</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="4">
         <v>45535</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="7">
         <v>0.34</v>
       </c>
     </row>
@@ -1276,13 +1277,13 @@
       <c r="E18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="4">
         <v>45536</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="4">
         <v>45657</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="7">
         <v>0.38</v>
       </c>
     </row>
@@ -1302,13 +1303,13 @@
       <c r="E19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="4">
         <v>45292</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="4">
         <v>45412</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="7">
         <v>0.27</v>
       </c>
     </row>
@@ -1328,13 +1329,13 @@
       <c r="E20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="4">
         <v>45413</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="4">
         <v>45535</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="7">
         <v>0.33</v>
       </c>
     </row>
@@ -1354,13 +1355,13 @@
       <c r="E21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="4">
         <v>45536</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="4">
         <v>45657</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="7">
         <v>0.4</v>
       </c>
     </row>
@@ -1380,13 +1381,13 @@
       <c r="E22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="4">
         <v>45292</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="4">
         <v>45412</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="7">
         <v>0.08</v>
       </c>
     </row>
@@ -1406,13 +1407,13 @@
       <c r="E23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="4">
         <v>45413</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="4">
         <v>45535</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="7">
         <v>0.24</v>
       </c>
     </row>
@@ -1432,13 +1433,13 @@
       <c r="E24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="4">
         <v>45536</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="4">
         <v>45657</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="7">
         <v>0.68</v>
       </c>
     </row>
@@ -1458,13 +1459,13 @@
       <c r="E25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="4">
         <v>45292</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="4">
         <v>45412</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="7">
         <v>0.18</v>
       </c>
     </row>
@@ -1484,13 +1485,13 @@
       <c r="E26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="4">
         <v>45413</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="4">
         <v>45535</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="7">
         <v>0.3</v>
       </c>
     </row>
@@ -1510,13 +1511,13 @@
       <c r="E27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="4">
         <v>45536</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="4">
         <v>45657</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="7">
         <v>0.52</v>
       </c>
     </row>
@@ -1536,13 +1537,13 @@
       <c r="E28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="4">
         <v>45292</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="4">
         <v>45412</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="7">
         <v>0.49</v>
       </c>
     </row>
@@ -1562,13 +1563,13 @@
       <c r="E29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="4">
         <v>45413</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="4">
         <v>45535</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="7">
         <v>0.33</v>
       </c>
     </row>
@@ -1588,13 +1589,13 @@
       <c r="E30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="4">
         <v>45536</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="4">
         <v>45657</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="7">
         <v>0.18</v>
       </c>
     </row>
@@ -1614,13 +1615,13 @@
       <c r="E31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="4">
         <v>45292</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="4">
         <v>45412</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="7">
         <v>0.27</v>
       </c>
     </row>
@@ -1640,13 +1641,13 @@
       <c r="E32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="4">
         <v>45413</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="4">
         <v>45535</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="7">
         <v>0.26</v>
       </c>
     </row>
@@ -1666,13 +1667,13 @@
       <c r="E33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="4">
         <v>45536</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="4">
         <v>45657</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="7">
         <v>0.47</v>
       </c>
     </row>
@@ -1692,13 +1693,13 @@
       <c r="E34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="4">
         <v>45292</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="4">
         <v>45412</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="7">
         <v>0.37</v>
       </c>
     </row>
@@ -1718,13 +1719,13 @@
       <c r="E35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="4">
         <v>45413</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="4">
         <v>45535</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="7">
         <v>0.38</v>
       </c>
     </row>
@@ -1744,13 +1745,13 @@
       <c r="E36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="4">
         <v>45536</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="4">
         <v>45657</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="7">
         <v>0.25</v>
       </c>
     </row>
@@ -1770,13 +1771,13 @@
       <c r="E37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="4">
         <v>45292</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37" s="4">
         <v>45412</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="7">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -1796,13 +1797,13 @@
       <c r="E38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="4">
         <v>45413</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="4">
         <v>45535</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="7">
         <v>0.35</v>
       </c>
     </row>
@@ -1822,13 +1823,13 @@
       <c r="E39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="4">
         <v>45536</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39" s="4">
         <v>45657</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="7">
         <v>0.37</v>
       </c>
     </row>
@@ -1848,13 +1849,13 @@
       <c r="E40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="4">
         <v>45292</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="4">
         <v>45412</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="7">
         <v>0.25</v>
       </c>
     </row>
@@ -1874,13 +1875,13 @@
       <c r="E41" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="4">
         <v>45413</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="4">
         <v>45535</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="7">
         <v>0.31</v>
       </c>
     </row>
@@ -1900,13 +1901,13 @@
       <c r="E42" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="4">
         <v>45536</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="4">
         <v>45657</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="7">
         <v>0.44</v>
       </c>
     </row>
@@ -1926,13 +1927,13 @@
       <c r="E43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="4">
         <v>45292</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="4">
         <v>45412</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="7">
         <v>0.21</v>
       </c>
     </row>
@@ -1952,13 +1953,13 @@
       <c r="E44" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="4">
         <v>45413</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="4">
         <v>45535</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="7">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -1978,13 +1979,13 @@
       <c r="E45" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="4">
         <v>45536</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="4">
         <v>45657</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="7">
         <v>0.51</v>
       </c>
     </row>
@@ -2004,13 +2005,13 @@
       <c r="E46" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="4">
         <v>45292</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="4">
         <v>45412</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="7">
         <v>0.21</v>
       </c>
     </row>
@@ -2030,13 +2031,13 @@
       <c r="E47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="4">
         <v>45413</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="4">
         <v>45535</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="7">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -2056,13 +2057,13 @@
       <c r="E48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="4">
         <v>45536</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="4">
         <v>45657</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="7">
         <v>0.51</v>
       </c>
     </row>
@@ -2082,13 +2083,13 @@
       <c r="E49" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="4">
         <v>45292</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49" s="4">
         <v>45412</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="7">
         <v>0.38</v>
       </c>
     </row>
@@ -2108,13 +2109,13 @@
       <c r="E50" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="4">
         <v>45413</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="4">
         <v>45535</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="7">
         <v>0.31</v>
       </c>
     </row>
@@ -2134,13 +2135,13 @@
       <c r="E51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="4">
         <v>45536</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G51" s="4">
         <v>45657</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="7">
         <v>0.31</v>
       </c>
     </row>
@@ -2160,13 +2161,13 @@
       <c r="E52" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="4">
         <v>45292</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="4">
         <v>45412</v>
       </c>
-      <c r="H52" s="9">
+      <c r="H52" s="7">
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -2186,13 +2187,13 @@
       <c r="E53" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="4">
         <v>45413</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="4">
         <v>45535</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="7">
         <v>0.2</v>
       </c>
     </row>
@@ -2212,13 +2213,13 @@
       <c r="E54" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="4">
         <v>45536</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="4">
         <v>45657</v>
       </c>
-      <c r="H54" s="9">
+      <c r="H54" s="7">
         <v>0.25</v>
       </c>
     </row>
@@ -2238,13 +2239,13 @@
       <c r="E55" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="4">
         <v>45047</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="4">
         <v>45138</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="7">
         <v>0.308</v>
       </c>
     </row>
@@ -2264,13 +2265,13 @@
       <c r="E56" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="4">
         <v>45139</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="4">
         <v>45230</v>
       </c>
-      <c r="H56" s="9">
+      <c r="H56" s="7">
         <v>0.371</v>
       </c>
     </row>
@@ -2290,13 +2291,13 @@
       <c r="E57" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57" s="4">
         <v>45231</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G57" s="4">
         <v>45412</v>
       </c>
-      <c r="H57" s="9">
+      <c r="H57" s="7">
         <f>1-SUM(H55:H56)</f>
         <v>0.32099999999999995</v>
       </c>
@@ -2317,13 +2318,13 @@
       <c r="E58" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="4">
         <v>45047</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="4">
         <v>45169</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="7">
         <v>0.56999999999999995</v>
       </c>
     </row>
@@ -2343,13 +2344,13 @@
       <c r="E59" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59" s="4">
         <v>45170</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="4">
         <v>45413</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="7">
         <v>0.43</v>
       </c>
     </row>
@@ -2369,13 +2370,13 @@
       <c r="E60" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="4">
         <v>45047</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="4">
         <v>45138</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="7">
         <v>0.33300000000000002</v>
       </c>
     </row>
@@ -2395,13 +2396,13 @@
       <c r="E61" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="4">
         <v>45139</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G61" s="4">
         <v>45230</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="7">
         <v>0.253</v>
       </c>
     </row>
@@ -2421,13 +2422,13 @@
       <c r="E62" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62" s="4">
         <v>45231</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62" s="4">
         <v>45322</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="7">
         <v>0.17699999999999999</v>
       </c>
     </row>
@@ -2447,13 +2448,13 @@
       <c r="E63" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63" s="4">
         <v>45323</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G63" s="4">
         <v>45412</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="7">
         <v>0.23699999999999999</v>
       </c>
     </row>
@@ -2473,13 +2474,13 @@
       <c r="E64" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="4">
         <v>45047</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64" s="4">
         <v>45138</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="7">
         <v>0.27</v>
       </c>
     </row>
@@ -2499,13 +2500,13 @@
       <c r="E65" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="4">
         <v>45139</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G65" s="4">
         <v>45230</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65" s="7">
         <v>0.214</v>
       </c>
     </row>
@@ -2525,13 +2526,13 @@
       <c r="E66" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="4">
         <v>45231</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G66" s="4">
         <v>45322</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="7">
         <v>0.22800000000000001</v>
       </c>
     </row>
@@ -2551,13 +2552,13 @@
       <c r="E67" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67" s="4">
         <v>45323</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G67" s="4">
         <v>45412</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67" s="7">
         <v>0.28799999999999998</v>
       </c>
     </row>
@@ -2577,13 +2578,13 @@
       <c r="E68" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="4">
         <v>45292</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G68" s="4">
         <v>45473</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H68" s="7">
         <v>0.35</v>
       </c>
     </row>
@@ -2603,13 +2604,13 @@
       <c r="E69" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69" s="4">
         <v>45474</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G69" s="4">
         <v>45548</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H69" s="7">
         <v>0.4</v>
       </c>
     </row>
@@ -2629,13 +2630,13 @@
       <c r="E70" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F70" s="4">
         <v>45549</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G70" s="4">
         <v>45657</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H70" s="7">
         <v>0.25</v>
       </c>
     </row>
@@ -2655,13 +2656,13 @@
       <c r="E71" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71" s="4">
         <v>44986</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G71" s="4">
         <v>45199</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H71" s="7">
         <v>0.6</v>
       </c>
     </row>
@@ -2681,13 +2682,13 @@
       <c r="E72" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F72" s="4">
         <v>45200</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G72" s="4">
         <v>45350</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72" s="7">
         <v>0.4</v>
       </c>
     </row>
@@ -2702,16 +2703,17 @@
         <v>91</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F73" s="6">
-        <v>45292</v>
-      </c>
-      <c r="G73" s="6">
-        <v>45382</v>
-      </c>
-      <c r="H73" s="9">
-        <v>5.2999999999999999E-2</v>
+        <v>93</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="4">
+        <v>45078</v>
+      </c>
+      <c r="G73" s="4">
+        <v>45169</v>
+      </c>
+      <c r="H73" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2725,17 +2727,16 @@
         <v>91</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="6">
-        <v>45444</v>
-      </c>
-      <c r="G74" s="6">
-        <v>45535</v>
-      </c>
-      <c r="H74" s="9">
-        <v>0.5</v>
+        <v>94</v>
+      </c>
+      <c r="F74" s="4">
+        <v>45170</v>
+      </c>
+      <c r="G74" s="4">
+        <v>45199</v>
+      </c>
+      <c r="H74" s="7">
+        <v>0.27</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2749,16 +2750,16 @@
         <v>91</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F75" s="6">
-        <v>45536</v>
-      </c>
-      <c r="G75" s="6">
-        <v>45565</v>
-      </c>
-      <c r="H75" s="9">
-        <v>0.27</v>
+        <v>95</v>
+      </c>
+      <c r="F75" s="4">
+        <v>45200</v>
+      </c>
+      <c r="G75" s="4">
+        <v>45260</v>
+      </c>
+      <c r="H75" s="7">
+        <v>0.13</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2772,16 +2773,16 @@
         <v>91</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F76" s="6">
-        <v>45566</v>
-      </c>
-      <c r="G76" s="6">
-        <v>45626</v>
-      </c>
-      <c r="H76" s="9">
-        <v>0.13</v>
+        <v>96</v>
+      </c>
+      <c r="F76" s="4">
+        <v>45261</v>
+      </c>
+      <c r="G76" s="4">
+        <v>45291</v>
+      </c>
+      <c r="H76" s="7">
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2795,16 +2796,16 @@
         <v>91</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F77" s="6">
-        <v>45627</v>
-      </c>
-      <c r="G77" s="6">
-        <v>45657</v>
-      </c>
-      <c r="H77" s="9">
-        <v>5.1999999999999998E-2</v>
+        <v>92</v>
+      </c>
+      <c r="F77" s="4">
+        <v>45292</v>
+      </c>
+      <c r="G77" s="4">
+        <v>45382</v>
+      </c>
+      <c r="H77" s="7">
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2823,13 +2824,13 @@
       <c r="E78" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78" s="4">
         <v>45292</v>
       </c>
-      <c r="G78" s="6">
+      <c r="G78" s="4">
         <v>45443</v>
       </c>
-      <c r="H78" s="9">
+      <c r="H78" s="7">
         <v>0.45</v>
       </c>
     </row>
@@ -2849,13 +2850,13 @@
       <c r="E79" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="4">
         <v>45444</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G79" s="4">
         <v>45596</v>
       </c>
-      <c r="H79" s="9">
+      <c r="H79" s="7">
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -2876,7 +2877,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2896,16 +2897,16 @@
       <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2919,13 +2920,14 @@
       <c r="C2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="9">
         <v>1994</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>1998</v>
       </c>
     </row>
@@ -2939,13 +2941,14 @@
       <c r="C3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="10">
         <v>1983</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>1992</v>
       </c>
     </row>
@@ -2956,16 +2959,17 @@
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>2000</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>2007</v>
       </c>
     </row>
@@ -2979,8 +2983,15 @@
       <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>106</v>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2013</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2017</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2993,8 +3004,15 @@
       <c r="C6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>106</v>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2013</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2017</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3007,8 +3025,15 @@
       <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>106</v>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2013</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2017</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3021,8 +3046,15 @@
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>106</v>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2013</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2017</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3035,8 +3067,15 @@
       <c r="C9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>106</v>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2013</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2017</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3049,8 +3088,15 @@
       <c r="C10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>106</v>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2013</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2017</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3063,8 +3109,15 @@
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>106</v>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2013</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2017</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3077,8 +3130,15 @@
       <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>106</v>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2013</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2017</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3091,8 +3151,15 @@
       <c r="C13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>106</v>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2013</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2017</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3105,8 +3172,15 @@
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>106</v>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2013</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2017</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3119,8 +3193,15 @@
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>106</v>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2013</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2017</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3133,8 +3214,15 @@
       <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>106</v>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2013</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2017</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3147,8 +3235,15 @@
       <c r="C17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>106</v>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2013</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2017</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3161,8 +3256,15 @@
       <c r="C18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>106</v>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2013</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2017</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3175,8 +3277,15 @@
       <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>106</v>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2013</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2017</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3189,13 +3298,14 @@
       <c r="C20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="3"/>
+      <c r="E20" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="10">
         <v>1998</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>2006</v>
       </c>
     </row>
@@ -3209,13 +3319,14 @@
       <c r="C21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="10">
         <v>1998</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>2006</v>
       </c>
     </row>
@@ -3229,13 +3340,14 @@
       <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="10">
         <v>2008</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>2010</v>
       </c>
     </row>
@@ -3249,13 +3361,14 @@
       <c r="C23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="10">
         <v>2008</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>2010</v>
       </c>
     </row>
@@ -3269,9 +3382,12 @@
       <c r="C24" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -3283,9 +3399,12 @@
       <c r="C25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -3298,8 +3417,11 @@
         <v>91</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -3312,8 +3434,11 @@
         <v>100</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
